--- a/A1.xlsx
+++ b/A1.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Copy_Sheet_Excel_Py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970CB4FA-A39B-423A-926B-AE5ACEE6F930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1799DA-EBD1-43EC-A802-4AFA618E6C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="k1" sheetId="1" r:id="rId1"/>
+    <sheet name="23" sheetId="3" r:id="rId1"/>
+    <sheet name="k1" sheetId="1" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -381,10 +383,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AFF8F1-1121-4F93-A78C-4A3F76D2E880}">
+  <dimension ref="A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -439,4 +461,16 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB55180-8968-411B-B55D-D911FBFD1D9D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>